--- a/labor-timekeeper/exports/2026-01/2026-01-12/Chris_Z_2026-01-12.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-12/Chris_Z_2026-01-12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -34,7 +34,7 @@
     <t>2026-01-12</t>
   </si>
   <si>
-    <t>Hall</t>
+    <t>Hopkins</t>
   </si>
   <si>
     <t>Regular</t>
@@ -43,28 +43,34 @@
     <t>2026-01-13</t>
   </si>
   <si>
-    <t>Bryan</t>
+    <t>Ritter</t>
   </si>
   <si>
     <t>2026-01-14</t>
   </si>
   <si>
-    <t>McGill</t>
+    <t>API Test Customer 1768319447013</t>
   </si>
   <si>
     <t>2026-01-15</t>
   </si>
   <si>
+    <t>Keevil</t>
+  </si>
+  <si>
     <t>2026-01-16</t>
   </si>
   <si>
+    <t>Total Hours on Insp.</t>
+  </si>
+  <si>
     <t>SUBTOTAL</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Reg: 42 / OT: 0</t>
+    <t>Reg: 45 / OT: 0</t>
   </si>
   <si>
     <t>Category: ADMIN</t>
@@ -504,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -513,7 +519,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>900</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -524,16 +530,16 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1">
-        <v>720</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -544,16 +550,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
-        <v>630</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -561,10 +567,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -573,67 +579,67 @@
         <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5">
-        <v>3950</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/labor-timekeeper/exports/2026-01/2026-01-12/Chris_Z_2026-01-12.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-12/Chris_Z_2026-01-12.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Weekly Timesheet" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Jason Schema" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -34,7 +35,7 @@
     <t>2026-01-12</t>
   </si>
   <si>
-    <t>Hopkins</t>
+    <t>Hall</t>
   </si>
   <si>
     <t>Regular</t>
@@ -43,37 +44,46 @@
     <t>2026-01-13</t>
   </si>
   <si>
-    <t>Ritter</t>
+    <t>Bryan</t>
   </si>
   <si>
     <t>2026-01-14</t>
   </si>
   <si>
-    <t>API Test Customer 1768319447013</t>
+    <t>McGill</t>
   </si>
   <si>
     <t>2026-01-15</t>
   </si>
   <si>
-    <t>Keevil</t>
-  </si>
-  <si>
     <t>2026-01-16</t>
   </si>
   <si>
-    <t>Total Hours on Insp.</t>
-  </si>
-  <si>
     <t>SUBTOTAL</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Reg: 45 / OT: 0</t>
+    <t>Reg: 42 / OT: 0</t>
   </si>
   <si>
     <t>Category: ADMIN</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Chris Z</t>
+  </si>
+  <si>
+    <t>emp_JcYsCv7rJ7fyha2O</t>
   </si>
 </sst>
 </file>
@@ -125,13 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -519,7 +531,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>950</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -530,16 +542,16 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1">
-        <v>900</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,16 +562,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1">
-        <v>850</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -567,10 +579,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -579,67 +591,263 @@
         <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="5">
-        <v>4500</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>900</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1">
+        <v>720</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>90</v>
+      </c>
+      <c r="G4" s="1">
+        <v>630</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>800</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>90</v>
+      </c>
+      <c r="G6" s="1">
+        <v>900</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
